--- a/test1.xlsx
+++ b/test1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>#</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>Passable</t>
+  </si>
+  <si>
+    <t>001/DEV3</t>
+  </si>
+  <si>
+    <t>001/DEV4</t>
   </si>
 </sst>
 </file>
@@ -539,7 +545,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,7 +569,7 @@
     </row>
     <row r="2" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -580,7 +586,7 @@
     </row>
     <row r="3" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -595,9 +601,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>12</v>
@@ -612,11 +618,39 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
+    <row r="5" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10">
+        <v>12</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10">
+        <v>13</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
@@ -638,8 +672,16 @@
     <hyperlink ref="C4" r:id="rId10" display="http://localhost:8080/showAdmis/3"/>
     <hyperlink ref="D4" r:id="rId11" display="http://localhost:8080/showAdmis/3"/>
     <hyperlink ref="E4" r:id="rId12" display="http://localhost:8080/showAdmis/3"/>
+    <hyperlink ref="B5" r:id="rId13" display="http://localhost:8080/showAdmis/3"/>
+    <hyperlink ref="B6" r:id="rId14" display="http://localhost:8080/showAdmis/3"/>
+    <hyperlink ref="C5" r:id="rId15" display="http://localhost:8080/showAdmis/3"/>
+    <hyperlink ref="C6" r:id="rId16" display="http://localhost:8080/showAdmis/3"/>
+    <hyperlink ref="D5" r:id="rId17" display="http://localhost:8080/showAdmis/3"/>
+    <hyperlink ref="D6" r:id="rId18" display="http://localhost:8080/showAdmis/3"/>
+    <hyperlink ref="E5" r:id="rId19" display="http://localhost:8080/showAdmis/3"/>
+    <hyperlink ref="E6" r:id="rId20" display="http://localhost:8080/showAdmis/3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
--- a/test1.xlsx
+++ b/test1.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
-  <si>
-    <t>#</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>N° d'Enregistrement</t>
   </si>
@@ -47,9 +44,6 @@
     <t>RAKOTO Richard</t>
   </si>
   <si>
-    <t>1999-01-07 à Ambatolampy</t>
-  </si>
-  <si>
     <t>Assez bien</t>
   </si>
   <si>
@@ -59,32 +53,26 @@
     <t>RAKOTO Bemalala</t>
   </si>
   <si>
-    <t>2008-06-05 à toliara</t>
-  </si>
-  <si>
-    <t>001/DEV2</t>
-  </si>
-  <si>
-    <t>BOLO Pix</t>
-  </si>
-  <si>
-    <t>2018-08-28 à Fianaratsoa</t>
-  </si>
-  <si>
-    <t>Passable</t>
-  </si>
-  <si>
-    <t>001/DEV3</t>
-  </si>
-  <si>
-    <t>001/DEV4</t>
+    <t>Adresse actuelle</t>
+  </si>
+  <si>
+    <t>tana 101</t>
+  </si>
+  <si>
+    <t>Toliara</t>
+  </si>
+  <si>
+    <t>31-08-1996 à Toliara</t>
+  </si>
+  <si>
+    <t>07-01-1999 à Ambatolampy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,12 +82,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -128,7 +110,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -148,42 +130,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFE4E5E7"/>
-      </left>
+      <left/>
       <right style="medium">
-        <color rgb="FFDDDDDD"/>
+        <color rgb="FFE4E5E7"/>
       </right>
       <top style="medium">
         <color rgb="FFE4E5E7"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFE4E5E7"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE4E5E7"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE4E5E7"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE4E5E7"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE4E5E7"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -215,50 +169,38 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -545,7 +487,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,134 +496,93 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
-        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>8</v>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10">
-        <v>11</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10">
-        <v>12</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10">
-        <v>13</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
+      <c r="A7" s="9"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
+      <c r="A8" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://localhost:8080/showAdmis/2"/>
-    <hyperlink ref="C2" r:id="rId2" display="http://localhost:8080/showAdmis/2"/>
-    <hyperlink ref="D2" r:id="rId3" display="http://localhost:8080/showAdmis/2"/>
-    <hyperlink ref="E2" r:id="rId4" display="http://localhost:8080/showAdmis/2"/>
-    <hyperlink ref="B3" r:id="rId5" display="http://localhost:8080/showAdmis/4"/>
-    <hyperlink ref="C3" r:id="rId6" display="http://localhost:8080/showAdmis/4"/>
-    <hyperlink ref="D3" r:id="rId7" display="http://localhost:8080/showAdmis/4"/>
-    <hyperlink ref="E3" r:id="rId8" display="http://localhost:8080/showAdmis/4"/>
-    <hyperlink ref="B4" r:id="rId9" display="http://localhost:8080/showAdmis/3"/>
-    <hyperlink ref="C4" r:id="rId10" display="http://localhost:8080/showAdmis/3"/>
-    <hyperlink ref="D4" r:id="rId11" display="http://localhost:8080/showAdmis/3"/>
-    <hyperlink ref="E4" r:id="rId12" display="http://localhost:8080/showAdmis/3"/>
-    <hyperlink ref="B5" r:id="rId13" display="http://localhost:8080/showAdmis/3"/>
-    <hyperlink ref="B6" r:id="rId14" display="http://localhost:8080/showAdmis/3"/>
-    <hyperlink ref="C5" r:id="rId15" display="http://localhost:8080/showAdmis/3"/>
-    <hyperlink ref="C6" r:id="rId16" display="http://localhost:8080/showAdmis/3"/>
-    <hyperlink ref="D5" r:id="rId17" display="http://localhost:8080/showAdmis/3"/>
-    <hyperlink ref="D6" r:id="rId18" display="http://localhost:8080/showAdmis/3"/>
-    <hyperlink ref="E5" r:id="rId19" display="http://localhost:8080/showAdmis/3"/>
-    <hyperlink ref="E6" r:id="rId20" display="http://localhost:8080/showAdmis/3"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://localhost:8080/showAdmis/2"/>
+    <hyperlink ref="B2" r:id="rId2" display="http://localhost:8080/showAdmis/2"/>
+    <hyperlink ref="C2" r:id="rId3" display="http://localhost:8080/showAdmis/2"/>
+    <hyperlink ref="D2" r:id="rId4" display="http://localhost:8080/showAdmis/2"/>
+    <hyperlink ref="A3" r:id="rId5" display="http://localhost:8080/showAdmis/4"/>
+    <hyperlink ref="B3" r:id="rId6" display="http://localhost:8080/showAdmis/4"/>
+    <hyperlink ref="C3" r:id="rId7" display="http://localhost:8080/showAdmis/4"/>
+    <hyperlink ref="E2" r:id="rId8" display="http://localhost:8080/showAdmis/2"/>
+    <hyperlink ref="E3" r:id="rId9" display="http://localhost:8080/showAdmis/4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>